--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_9_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_9_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1405978981057248</v>
+        <v>0.1480919109786649</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1405978981057248</v>
+        <v>0.1480919109786649</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.043036677466114</v>
+        <v>5.359290086357523</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.463201624506576, 13.549274979438804]</t>
+          <t>[-1.5550306928318385, 12.273610865546885]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1118991297775722</v>
+        <v>0.1254987059497927</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1118991297775722</v>
+        <v>0.1254987059497927</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.622684493746079</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.2327900379282353, -0.012578949563923025]</t>
+          <t>[-4.459237620410737, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04831036765254471</v>
+        <v>0.1246258850976925</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04831036765254471</v>
+        <v>0.1246258850976925</v>
       </c>
       <c r="T2" t="n">
-        <v>10.49293877063802</v>
+        <v>9.589948760238737</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.088352627186304, 14.897524914089733]</t>
+          <t>[5.722008427277215, 13.45788909320026]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.795829522266423e-05</v>
+        <v>9.395585883975599e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.795829522266423e-05</v>
+        <v>9.395585883975599e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.712132132132293</v>
+        <v>7.9284284284286</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05203203203203355</v>
+        <v>-2.276226226226274</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.37223223223255</v>
+        <v>18.13308308308347</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0645547780730491</v>
+        <v>0.1511080419965953</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0645547780730491</v>
+        <v>0.1511080419965953</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.701400424064389</v>
+        <v>5.806563155839582</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.030283955541490215, 13.372516892587289]</t>
+          <t>[-1.445232758084403, 13.058359069763567]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.04901208808175039</v>
+        <v>0.1138003970261712</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04901208808175039</v>
+        <v>0.1138003970261712</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.886842434588464</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.9183162988301583, 0.025157899127846495]</t>
+          <t>[-4.710816611689199, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.05387636990493649</v>
+        <v>0.1851323167998076</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05387636990493649</v>
+        <v>0.1851323167998076</v>
       </c>
       <c r="T3" t="n">
-        <v>10.17270822915381</v>
+        <v>10.3627982924366</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.046943926180078, 14.298472532127533]</t>
+          <t>[6.135845353045294, 14.5897512318279]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.029808621644257e-05</v>
+        <v>1.131363016848574e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.029808621644257e-05</v>
+        <v>1.131363016848574e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>5.983683683683829</v>
+        <v>7.672672672672842</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.1040640640640662</v>
+        <v>-3.810760760760841</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.07143143143172</v>
+        <v>19.15610610610653</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3253670479905304</v>
+        <v>0.1346602388766877</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3253670479905304</v>
+        <v>0.1346602388766877</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.779382239781597</v>
+        <v>6.031647973326757</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.756921035005041, 13.315685514568235]</t>
+          <t>[-1.8553244877735686, 13.918620434427083]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2654343859221293</v>
+        <v>0.1304886221222599</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2654343859221293</v>
+        <v>0.1304886221222599</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.773631888513156</v>
+        <v>-2.100684577175157</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.842895582110391, 1.2956318050840787]</t>
+          <t>[-4.559869216922121, 0.35850006257180755]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2506035720628512</v>
+        <v>0.0922144775759548</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2506035720628512</v>
+        <v>0.0922144775759548</v>
       </c>
       <c r="T4" t="n">
-        <v>11.74691070706264</v>
+        <v>11.76867052522366</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.146814306894929, 16.347007107230343]</t>
+          <t>[7.5638611769669275, 15.9734798734804]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.700985325152175e-06</v>
+        <v>1.075679648021577e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>5.700985325152175e-06</v>
+        <v>1.075679648021577e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>7.336516516516692</v>
+        <v>8.542242242242427</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.359299299299428</v>
+        <v>-1.457807807807836</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.03233233233281</v>
+        <v>18.54229229229269</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07983930441867138</v>
+        <v>0.3272344512954579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07983930441867138</v>
+        <v>0.3272344512954579</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.340039779799877</v>
+        <v>4.593410469409209</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.928041173142951, 13.608120732742705]</t>
+          <t>[-3.4275315230761194, 12.614352461894537]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08573269551559104</v>
+        <v>0.2548232484145965</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08573269551559104</v>
+        <v>0.2548232484145965</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.377421467581465</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.440395686396739, 0.6855527512338089]</t>
+          <t>[-5.622790455073624, 0.5660527303765397]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1249861287779988</v>
+        <v>0.1067997279629571</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1249861287779988</v>
+        <v>0.1067997279629571</v>
       </c>
       <c r="T5" t="n">
-        <v>10.67894681997954</v>
+        <v>10.84937428708581</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.865008000969064, 14.492885638990023]</t>
+          <t>[6.6296720924737755, 15.069076481697838]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.067471298021871e-06</v>
+        <v>5.065730638298405e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.067471298021871e-06</v>
+        <v>5.065730638298405e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>9.834054054054288</v>
+        <v>10.2813813813816</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.835745745745816</v>
+        <v>-2.301801801801856</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.50385385385439</v>
+        <v>22.86456456456506</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.80000000000013</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1221532296341856</v>
+        <v>0.04979053983938808</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1221532296341856</v>
+        <v>0.04979053983938808</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.649703433417189</v>
+        <v>6.720431724139404</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.4351898516257666, 12.734596718460145]</t>
+          <t>[0.09859802495793346, 13.342265423320875]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1152462352832335</v>
+        <v>0.04682274422548427</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1152462352832335</v>
+        <v>0.04682274422548427</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.893158399702312</v>
+        <v>-2.981211046649773</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.679369237779391, -1.1069475616252324]</t>
+          <t>[-4.415211296937008, -1.5472107963625397]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002112500317487109</v>
+        <v>0.0001296281643339281</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002112500317487109</v>
+        <v>0.0001296281643339281</v>
       </c>
       <c r="T6" t="n">
-        <v>10.03584546289858</v>
+        <v>10.40385530805715</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.132326956942207, 13.939363968854948]</t>
+          <t>[6.544904074130532, 14.262806541983778]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.070831726738945e-06</v>
+        <v>2.170837201109777e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.070831726738945e-06</v>
+        <v>2.170837201109777e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>10.49849849849856</v>
+        <v>10.78480480480486</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.016816816816839</v>
+        <v>5.5971771771772</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.98018018018027</v>
+        <v>15.97243243243252</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.80000000000013</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09523389183451536</v>
+        <v>0.06999438964905946</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09523389183451536</v>
+        <v>0.06999438964905946</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.16848674454424</v>
+        <v>6.385368626518341</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.9612358819698432, 13.298209371058324]</t>
+          <t>[-0.40017000979501915, 13.170907262831701]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0882414560261946</v>
+        <v>0.06448390662331271</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0882414560261946</v>
+        <v>0.06448390662331271</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.905737349266235</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.578737641268007, -1.2327370572644627]</t>
+          <t>[-4.4655270951927, -1.4465791998511555]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.001067177059861368</v>
+        <v>0.0002772963716184407</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001067177059861368</v>
+        <v>0.0002772963716184407</v>
       </c>
       <c r="T7" t="n">
-        <v>11.16593464961381</v>
+        <v>10.32171528569619</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.143164265866356, 15.188705033361263]</t>
+          <t>[6.413915806950017, 14.229514764442362]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.260511761635996e-06</v>
+        <v>3.149309033556591e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.260511761635996e-06</v>
+        <v>3.149309033556591e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5441441441442</v>
+        <v>10.69379379379385</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.473273273273295</v>
+        <v>5.233133133133157</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.61501501501511</v>
+        <v>16.15445445445454</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.80000000000013</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.115476452814099</v>
+        <v>0.03364731615168881</v>
       </c>
       <c r="I8" t="n">
-        <v>0.115476452814099</v>
+        <v>0.03364731615168881</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.118769264716212</v>
+        <v>7.065122472288301</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.5680360490067429, 13.805574578439167]</t>
+          <t>[-0.2361069026933773, 14.36635184726998]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1158773828039346</v>
+        <v>0.05754922061059475</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1158773828039346</v>
+        <v>0.05754922061059475</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.452895164965004</v>
+        <v>-2.301947770197927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.534737808126161, 0.6289474781961539]</t>
+          <t>[-3.283105836183928, -1.3207897042119252]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1159179334255456</v>
+        <v>2.281649639357397e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1159179334255456</v>
+        <v>2.281649639357397e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>10.59184025373554</v>
+        <v>9.904518085448728</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.493198768044881, 14.690481739426207]</t>
+          <t>[6.212655833561719, 13.596380337335738]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.636241182520706e-06</v>
+        <v>2.375508727281428e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.636241182520706e-06</v>
+        <v>2.375508727281428e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>8.90090090090095</v>
+        <v>8.32750750750755</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.28228228228229</v>
+        <v>4.778078078078103</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.08408408408419</v>
+        <v>11.876936936937</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.80000000000013</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1364918363575039</v>
+        <v>0.1273316614032174</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1364918363575039</v>
+        <v>0.1273316614032174</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.168669413879879</v>
+        <v>5.871863810322326</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.2692374502740336, 14.606576278033792]</t>
+          <t>[-1.943828973474231, 13.687556594118883]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1478614296065954</v>
+        <v>0.1372264858726382</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1478614296065954</v>
+        <v>0.1372264858726382</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.188737224122619</v>
+        <v>-2.226474072814388</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.302027241193585, 0.9245527929483472]</t>
+          <t>[-5.358632514231239, 0.9056843686024632]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1636673683111731</v>
+        <v>0.159135619687496</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1636673683111731</v>
+        <v>0.159135619687496</v>
       </c>
       <c r="T9" t="n">
-        <v>9.693260157845154</v>
+        <v>10.74406590130205</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.440464260735572, 13.946056054954736]</t>
+          <t>[6.762304716195352, 14.725827086408742]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.545351115796791e-05</v>
+        <v>2.137267855584213e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>3.545351115796791e-05</v>
+        <v>2.137267855584213e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>7.942342342342387</v>
+        <v>8.054474474474514</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3.354954954954971</v>
+        <v>-3.276396396396416</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.23963963963975</v>
+        <v>19.38534534534544</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.80000000000013</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1835899853400618</v>
+        <v>0.02424618381191057</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1835899853400618</v>
+        <v>0.02424618381191057</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.914084783348905</v>
+        <v>8.152867269426082</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.0826380444222057, 13.910807611120015]</t>
+          <t>[0.9501719777311131, 15.355562561121051]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1433165667467122</v>
+        <v>0.02741040741257095</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1433165667467122</v>
+        <v>0.02741040741257095</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.195000208572694</v>
+        <v>-1.383684452031541</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-4.283132326515813, 1.8931319093704255]</t>
+          <t>[-2.5912636101681574, -0.17610529389492413]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.4398308574656169</v>
+        <v>0.02566224587866084</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4398308574656169</v>
+        <v>0.02566224587866084</v>
       </c>
       <c r="T10" t="n">
-        <v>10.57309996560132</v>
+        <v>10.70967862637943</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.146672575070735, 14.999527356131896]</t>
+          <t>[6.7078458975052655, 14.711511355253595]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.721588831649079e-05</v>
+        <v>2.484679777259302e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.721588831649079e-05</v>
+        <v>2.484679777259302e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>4.336336336336359</v>
+        <v>5.005605605605631</v>
       </c>
       <c r="Y10" t="n">
-        <v>-6.869669669669705</v>
+        <v>0.6370770770770822</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.54234234234242</v>
+        <v>9.374134134134179</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_9_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_9_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.55000000000055</v>
+        <v>25.80000000000059</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1480919109786649</v>
+        <v>0.09641523449925138</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1480919109786649</v>
+        <v>0.09641523449925138</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.359290086357523</v>
+        <v>6.514365145564899</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.5550306928318385, 12.273610865546885]</t>
+          <t>[-0.9053080283444785, 13.934038319474276]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1254987059497927</v>
+        <v>0.08378050985194729</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1254987059497927</v>
+        <v>0.08378050985194729</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.94973718240808</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.459237620410737, 0.5597632555945777]</t>
+          <t>[-3.031526844905466, 0.037736848691769964]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1246258850976925</v>
+        <v>0.05565642220087352</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1246258850976925</v>
+        <v>0.05565642220087352</v>
       </c>
       <c r="T2" t="n">
-        <v>9.589948760238737</v>
+        <v>10.96510329462241</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.722008427277215, 13.45788909320026]</t>
+          <t>[6.628405592667752, 15.30180099657706]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.395585883975599e-06</v>
+        <v>6.755266144242711e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>9.395585883975599e-06</v>
+        <v>6.755266144242711e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>7.9284284284286</v>
+        <v>6.146546546546688</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.276226226226274</v>
+        <v>-0.1549549549549596</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.13308308308347</v>
+        <v>12.44804804804834</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.55000000000055</v>
+        <v>25.80000000000059</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1511080419965953</v>
+        <v>0.2321994122497633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1511080419965953</v>
+        <v>0.2321994122497633</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.806563155839582</v>
+        <v>5.132147480404933</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.445232758084403, 13.058359069763567]</t>
+          <t>[-2.2190893781183796, 12.483384338928246]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1138003970261712</v>
+        <v>0.1665582499277438</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1138003970261712</v>
+        <v>0.1665582499277438</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.886842434588464</v>
+        <v>-1.58494764505431</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.710816611689199, 0.9371317425122703]</t>
+          <t>[-4.622763964741737, 1.452868674633117]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1851323167998076</v>
+        <v>0.298944315069521</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1851323167998076</v>
+        <v>0.298944315069521</v>
       </c>
       <c r="T3" t="n">
-        <v>10.3627982924366</v>
+        <v>10.99435856690122</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.135845353045294, 14.5897512318279]</t>
+          <t>[6.64108068981524, 15.347636443987206]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.131363016848574e-05</v>
+        <v>6.888893161027809e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.131363016848574e-05</v>
+        <v>6.888893161027809e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.672672672672842</v>
+        <v>6.508108108108257</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.810760760760841</v>
+        <v>-5.965765765765903</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.15610610610653</v>
+        <v>18.98198198198241</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.55000000000055</v>
+        <v>25.80000000000059</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1346602388766877</v>
+        <v>0.1685280238412414</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1346602388766877</v>
+        <v>0.1685280238412414</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.031647973326757</v>
+        <v>5.058786934676981</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.8553244877735686, 13.918620434427083]</t>
+          <t>[-2.142164973278023, 12.259738842631984]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1304886221222599</v>
+        <v>0.1639689219390783</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1304886221222599</v>
+        <v>0.1639689219390783</v>
       </c>
       <c r="P4" t="n">
         <v>-2.100684577175157</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.559869216922121, 0.35850006257180755]</t>
+          <t>[-4.842895582110392, 0.6415264277600787]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0922144775759548</v>
+        <v>0.1298554431291645</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0922144775759548</v>
+        <v>0.1298554431291645</v>
       </c>
       <c r="T4" t="n">
-        <v>11.76867052522366</v>
+        <v>9.248834455748149</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.5638611769669275, 15.9734798734804]</t>
+          <t>[5.5027183607750585, 12.994950550721239]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.075679648021577e-06</v>
+        <v>1.007576985445624e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.075679648021577e-06</v>
+        <v>1.007576985445624e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>8.542242242242427</v>
+        <v>8.625825825826023</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.457807807807836</v>
+        <v>-2.634234234234299</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.54229229229269</v>
+        <v>19.88588588588635</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.55000000000055</v>
+        <v>25.80000000000059</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3272344512954579</v>
+        <v>0.225863328428602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3272344512954579</v>
+        <v>0.225863328428602</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.593410469409209</v>
+        <v>5.450288353108934</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.4275315230761194, 12.614352461894537]</t>
+          <t>[-3.050345244969141, 13.95092195118701]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2548232484145965</v>
+        <v>0.2031703385962667</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2548232484145965</v>
+        <v>0.2031703385962667</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.151000375430849</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.622790455073624, 0.5660527303765397]</t>
+          <t>[-5.276869342065737, 0.9748685912040393]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1067997279629571</v>
+        <v>0.1725885139857861</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1067997279629571</v>
+        <v>0.1725885139857861</v>
       </c>
       <c r="T5" t="n">
-        <v>10.84937428708581</v>
+        <v>11.10965383797486</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.6296720924737755, 15.069076481697838]</t>
+          <t>[6.69773083557585, 15.521576840373871]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.065730638298405e-06</v>
+        <v>7.242455053901864e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>5.065730638298405e-06</v>
+        <v>7.242455053901864e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>10.2813813813816</v>
+        <v>8.832432432432633</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.301801801801856</v>
+        <v>-4.003003003003094</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.86456456456506</v>
+        <v>21.66786786786836</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.73000000000011</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04979053983938808</v>
+        <v>0.1340922100441314</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04979053983938808</v>
+        <v>0.1340922100441314</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.720431724139404</v>
+        <v>5.20330886553487</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.09859802495793346, 13.342265423320875]</t>
+          <t>[-0.9832596886407785, 11.389877419710519]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.04682274422548427</v>
+        <v>0.09717835068447656</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04682274422548427</v>
+        <v>0.09717835068447656</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.981211046649773</v>
+        <v>-3.107000542289005</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.415211296937008, -1.5472107963625397]</t>
+          <t>[-4.691948187343314, -1.5220528972346945]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0001296281643339281</v>
+        <v>0.0002738873930134833</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001296281643339281</v>
+        <v>0.0002738873930134833</v>
       </c>
       <c r="T6" t="n">
-        <v>10.40385530805715</v>
+        <v>10.24147095717469</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.544904074130532, 14.262806541983778]</t>
+          <t>[6.5310743028913905, 13.951867611457985]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.170837201109777e-06</v>
+        <v>1.401144569035395e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.170837201109777e-06</v>
+        <v>1.401144569035395e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>10.78480480480486</v>
+        <v>11.16074074074078</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5971771771772</v>
+        <v>5.46740740740743</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.97243243243252</v>
+        <v>16.85407407407414</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.73000000000011</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06999438964905946</v>
+        <v>0.01824781256702523</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06999438964905946</v>
+        <v>0.01824781256702523</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.385368626518341</v>
+        <v>7.610809594485712</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.40017000979501915, 13.170907262831701]</t>
+          <t>[0.9488250510574616, 14.272794137913962]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.06448390662331271</v>
+        <v>0.02608113839473614</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06448390662331271</v>
+        <v>0.02608113839473614</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.956053147521927</v>
+        <v>-2.930895248394081</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.4655270951927, -1.4465791998511555]</t>
+          <t>[-4.100737557838929, -1.7610529389492338]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0002772963716184407</v>
+        <v>7.889184554077389e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002772963716184407</v>
+        <v>7.889184554077389e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>10.32171528569619</v>
+        <v>10.86324523824391</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.413915806950017, 14.229514764442362]</t>
+          <t>[7.118974732716033, 14.607515743771785]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.149309033556591e-06</v>
+        <v>5.327927472542626e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.149309033556591e-06</v>
+        <v>5.327927472542626e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>10.69379379379385</v>
+        <v>10.52814814814819</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.233133133133157</v>
+        <v>6.325925925925952</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.15445445445454</v>
+        <v>14.73037037037043</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.73000000000011</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03364731615168881</v>
+        <v>0.09667990852964548</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03364731615168881</v>
+        <v>0.09667990852964548</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.065122472288301</v>
+        <v>5.947377656838164</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.2361069026933773, 14.36635184726998]</t>
+          <t>[-1.171198665048589, 13.065953978724917]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.05754922061059475</v>
+        <v>0.09935458666748564</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05754922061059475</v>
+        <v>0.09935458666748564</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.301947770197927</v>
+        <v>-2.289368820634003</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.283105836183928, -1.3207897042119252]</t>
+          <t>[-5.396369362923008, 0.8176317216550011]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.281649639357397e-05</v>
+        <v>0.1447599590504667</v>
       </c>
       <c r="S8" t="n">
-        <v>2.281649639357397e-05</v>
+        <v>0.1447599590504667</v>
       </c>
       <c r="T8" t="n">
-        <v>9.904518085448728</v>
+        <v>11.04827667044055</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.212655833561719, 13.596380337335738]</t>
+          <t>[7.266972636113617, 14.829580704767483]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.375508727281428e-06</v>
+        <v>4.627183565197868e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>2.375508727281428e-06</v>
+        <v>4.627183565197868e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>8.32750750750755</v>
+        <v>8.223703703703737</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.778078078078103</v>
+        <v>-2.937037037037047</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.876936936937</v>
+        <v>19.38444444444452</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.73000000000011</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1273316614032174</v>
+        <v>0.08970215608774013</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1273316614032174</v>
+        <v>0.08970215608774013</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.871863810322326</v>
+        <v>6.807352587253144</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.943828973474231, 13.687556594118883]</t>
+          <t>[-1.2487133956772887, 14.863418570183576]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1372264858726382</v>
+        <v>0.09567208885053158</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1372264858726382</v>
+        <v>0.09567208885053158</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.226474072814388</v>
+        <v>-2.037789829355542</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.358632514231239, 0.9056843686024632]</t>
+          <t>[-4.06300070914716, -0.012578949563923025]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.159135619687496</v>
+        <v>0.04865259490210949</v>
       </c>
       <c r="S9" t="n">
-        <v>0.159135619687496</v>
+        <v>0.04865259490210949</v>
       </c>
       <c r="T9" t="n">
-        <v>10.74406590130205</v>
+        <v>9.717654444419271</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.762304716195352, 14.725827086408742]</t>
+          <t>[5.508590033807997, 13.926718855030543]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.137267855584213e-06</v>
+        <v>2.920739057854504e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>2.137267855584213e-06</v>
+        <v>2.920739057854504e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>8.054474474474514</v>
+        <v>7.32000000000003</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3.276396396396416</v>
+        <v>0.04518518518518544</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.38534534534544</v>
+        <v>14.59481481481487</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.73000000000011</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02424618381191057</v>
+        <v>0.0765161513406688</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02424618381191057</v>
+        <v>0.0765161513406688</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.152867269426082</v>
+        <v>7.379811649715576</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.9501719777311131, 15.355562561121051]</t>
+          <t>[-1.1592577648262488, 15.9188810642574]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02741040741257095</v>
+        <v>0.08857595211687075</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02741040741257095</v>
+        <v>0.08857595211687075</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.383684452031541</v>
+        <v>-1.144684410317002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.5912636101681574, -0.17610529389492413]</t>
+          <t>[-3.018947895341543, 0.7295790747075399]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02566224587866084</v>
+        <v>0.225055482562071</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02566224587866084</v>
+        <v>0.225055482562071</v>
       </c>
       <c r="T10" t="n">
-        <v>10.70967862637943</v>
+        <v>11.02159621563669</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.7078458975052655, 14.711511355253595]</t>
+          <t>[6.569728759048374, 15.473463672225016]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.484679777259302e-06</v>
+        <v>9.626261562756255e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.484679777259302e-06</v>
+        <v>9.626261562756255e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>5.005605605605631</v>
+        <v>4.111851851851867</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6370770770770822</v>
+        <v>-2.620740740740753</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.374134134134179</v>
+        <v>10.84444444444449</v>
       </c>
     </row>
   </sheetData>
